--- a/excel réunion sumo 07.03.xlsx
+++ b/excel réunion sumo 07.03.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="pulls sumos" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="72">
   <si>
     <t>voiture</t>
   </si>
@@ -204,6 +204,36 @@
   </si>
   <si>
     <t>Respo Pistocolle</t>
+  </si>
+  <si>
+    <t>françois</t>
+  </si>
+  <si>
+    <t>en attente (pull moche ou pas?)</t>
+  </si>
+  <si>
+    <t>raspi</t>
+  </si>
+  <si>
+    <t>Respo Fils Ardui</t>
+  </si>
+  <si>
+    <t>Première Dame</t>
+  </si>
+  <si>
+    <t>Respo Whatsapp</t>
+  </si>
+  <si>
+    <t>Gadz</t>
+  </si>
+  <si>
+    <t>froux</t>
+  </si>
+  <si>
+    <t>julien</t>
+  </si>
+  <si>
+    <t>stepper</t>
   </si>
 </sst>
 </file>
@@ -583,10 +613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -638,6 +668,9 @@
       <c r="A3" t="s">
         <v>31</v>
       </c>
+      <c r="C3" t="s">
+        <v>67</v>
+      </c>
       <c r="G3" t="s">
         <v>21</v>
       </c>
@@ -657,6 +690,9 @@
       <c r="A5" t="s">
         <v>26</v>
       </c>
+      <c r="C5" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -687,6 +723,9 @@
       <c r="B8" t="s">
         <v>35</v>
       </c>
+      <c r="C8" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -698,6 +737,9 @@
       <c r="C9" t="s">
         <v>48</v>
       </c>
+      <c r="J9" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -709,6 +751,15 @@
       <c r="C10" t="s">
         <v>43</v>
       </c>
+      <c r="J10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -720,6 +771,12 @@
       <c r="C11" t="s">
         <v>51</v>
       </c>
+      <c r="J11" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -730,6 +787,16 @@
       </c>
       <c r="C12" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -742,10 +809,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -798,6 +865,11 @@
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -810,7 +882,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -872,6 +944,9 @@
       <c r="D3" t="s">
         <v>15</v>
       </c>
+      <c r="G3" t="s">
+        <v>62</v>
+      </c>
       <c r="I3" t="s">
         <v>30</v>
       </c>
@@ -898,10 +973,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -963,6 +1038,16 @@
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
